--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>std</t>
+          <t>dev</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>athleteEvents</t>
+          <t>Sinasc</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -984,25 +984,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8633355050869653</v>
+        <v>0.5554077501955341</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9577175232177343</v>
+        <v>0.6236794846514889</v>
       </c>
       <c r="E17" t="n">
-        <v>-1</v>
+        <v>0.9885408987066415</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.8874966671195336</v>
       </c>
       <c r="G17" t="n">
-        <v>-1</v>
+        <v>0.92375623637991</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.82683154163782</v>
+        <v>0.2807321491212235</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1016,24 +1016,20 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1775652997943315</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>-1</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1775652997943315</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.7852460980835306</v>
+        <v>-0.8982253060047957</v>
       </c>
     </row>
     <row r="19">
@@ -1044,24 +1040,20 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.4429345482408469</v>
+        <v>0.1069123433588375</v>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>-1</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4429345482408469</v>
+        <v>0.1069123433588375</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.4642989219261459</v>
+        <v>-0.6191660139620437</v>
       </c>
     </row>
     <row r="20">
@@ -1072,28 +1064,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8633355050869653</v>
+        <v>0.5554077501955341</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9577175232177343</v>
+        <v>0.6236794846514889</v>
       </c>
       <c r="E20" t="n">
-        <v>-1</v>
+        <v>0.9885408987066415</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.8874966671195336</v>
       </c>
       <c r="G20" t="n">
-        <v>-1</v>
+        <v>0.92375623637991</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4049256371714426</v>
+        <v>-1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3348052888311404</v>
+        <v>0.2807321491212235</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.5950743628285574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1104,30 +1096,26 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9422711821472727</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>-1</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9422711821472727</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1396168804600576</v>
+        <v>2.562114289832149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>eleicoes</t>
+          <t>athleteEvents</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -1136,25 +1124,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9025371804997731</v>
+        <v>0.8633355050869653</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8048850179953096</v>
+        <v>0.9577175232177343</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9091531064341412</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>-1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9957435264631178</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6576327973794622</v>
+        <v>0.82683154163782</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1168,20 +1156,24 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.12</v>
+        <v>0.1775652997943315</v>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>-1</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
         <v>-1</v>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
       <c r="I23" t="n">
-        <v>0.12</v>
+        <v>0.1775652997943315</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.817527348881965</v>
+        <v>-0.7852460980835306</v>
       </c>
     </row>
     <row r="24">
@@ -1192,20 +1184,24 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.28</v>
+        <v>0.4429345482408469</v>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>-1</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
         <v>-1</v>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
       <c r="I24" t="n">
-        <v>0.28</v>
+        <v>0.4429345482408469</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.574230480724585</v>
+        <v>-0.4642989219261459</v>
       </c>
     </row>
     <row r="25">
@@ -1216,28 +1212,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1285684037172098</v>
+        <v>0.8633355050869653</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8351141431779168</v>
+        <v>0.9577175232177343</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9074888599753596</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>-1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0.4049256371714426</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09743643667480852</v>
+        <v>0.3348052888311404</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.8518376257037763</v>
+        <v>-0.5950743628285574</v>
       </c>
     </row>
     <row r="26">
@@ -1248,10 +1244,12 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.9422711821472727</v>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>-1</v>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
         <v>-1</v>
@@ -1260,16 +1258,16 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0.9422711821472727</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5206054259836248</v>
+        <v>0.1396168804600576</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>sinasc</t>
+          <t>eleicoes</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1278,25 +1276,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5404389249199493</v>
+        <v>0.9025371804997731</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6236794846514889</v>
+        <v>0.8048850179953096</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9885408987066415</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9969357880432219</v>
+        <v>0.9091531064341412</v>
       </c>
       <c r="G27" t="n">
-        <v>0.92375623637991</v>
+        <v>-1</v>
       </c>
       <c r="H27" t="n">
-        <v>-1</v>
+        <v>0.9957435264631178</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3068508226515346</v>
+        <v>0.6576327973794622</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1310,20 +1308,20 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J28" t="n">
-        <v>-1</v>
+        <v>-0.817527348881965</v>
       </c>
     </row>
     <row r="29">
@@ -1334,20 +1332,20 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.07834091478740891</v>
+        <v>0.28</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.07834091478740891</v>
+        <v>0.28</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.7446938088337007</v>
+        <v>-0.574230480724585</v>
       </c>
     </row>
     <row r="30">
@@ -1358,28 +1356,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5404389249199493</v>
+        <v>0.1285684037172098</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6236794846514889</v>
+        <v>0.8351141431779168</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9885408987066415</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9969357880432219</v>
+        <v>0.9074888599753596</v>
       </c>
       <c r="G30" t="n">
-        <v>0.92375623637991</v>
+        <v>-1</v>
       </c>
       <c r="H30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3068508226515346</v>
+        <v>0.09743643667480852</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>-0.8518376257037763</v>
       </c>
     </row>
     <row r="31">
@@ -1395,15 +1393,17 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>-1</v>
+      </c>
       <c r="H31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.258912560047519</v>
+        <v>0.5206054259836248</v>
       </c>
     </row>
   </sheetData>
